--- a/results/multilabel_native/41465/automl.xlsx
+++ b/results/multilabel_native/41465/automl.xlsx
@@ -483,11 +483,31 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.282 (0.242 ± 0.023)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:01:10 (00:01:17 ± 00:00:07)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,17 +517,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.518 (0.462 Â± 0.033)</t>
+          <t>0.518 (0.462 ± 0.033)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:38 Â± 00:00:10)</t>
+          <t>00:00:27 (00:00:38 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +561,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.739 (0.690 Â± 0.026)</t>
+          <t>0.739 (0.690 ± 0.026)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -585,17 +605,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.727 (0.651 Â± 0.031)</t>
+          <t>0.727 (0.651 ± 0.031)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:05 Â± 00:00:04)</t>
+          <t>00:04:56 (00:05:05 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
